--- a/1/finance_1/Home Exercises Lecture 1.xlsx
+++ b/1/finance_1/Home Exercises Lecture 1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Teaching\IDC\Finance 1\Lecture 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lgenkin\OneDrive - Mellanox\Documents\mafe\1\finance_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D97CF0C-B3B9-4F75-B52F-A8C15FE768BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{4D97CF0C-B3B9-4F75-B52F-A8C15FE768BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{72EA817F-89FA-4BA6-93B6-F403A281767B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="11" xr2:uid="{7B44BAF0-5656-49E5-A319-E888E1D9E2CA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="8" xr2:uid="{7B44BAF0-5656-49E5-A319-E888E1D9E2CA}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="8" r:id="rId1"/>
@@ -26,13 +26,43 @@
     <sheet name="Q10" sheetId="14" r:id="rId11"/>
     <sheet name="Q11" sheetId="15" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -419,7 +449,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000%"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -710,6 +740,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -766,7 +797,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -1090,9 +1120,9 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>9</v>
       </c>
@@ -1101,17 +1131,17 @@
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="9"/>
     </row>
-    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
     </row>
-    <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
@@ -1130,36 +1160,36 @@
       <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="112.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:14" ht="112.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="49"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="50"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>75</v>
       </c>
@@ -1167,12 +1197,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>77</v>
       </c>
@@ -1183,12 +1213,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="38" t="s">
         <v>73</v>
       </c>
@@ -1196,7 +1226,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>80</v>
       </c>
@@ -1204,7 +1234,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>81</v>
       </c>
@@ -1212,7 +1242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>82</v>
       </c>
@@ -1221,17 +1251,17 @@
         <v>3.0377509393764601E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1240,7 +1270,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -1249,7 +1279,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -1258,7 +1288,7 @@
         <v>3.0377509393764601E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>28</v>
       </c>
@@ -1267,12 +1297,12 @@
         <v>6745.0526812659991</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -1280,7 +1310,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1288,7 +1318,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>82</v>
       </c>
@@ -1297,7 +1327,7 @@
         <v>6.1677811864497611E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -1306,7 +1336,7 @@
         <v>13695.003263718607</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>87</v>
       </c>
@@ -1315,7 +1345,7 @@
         <v>13490.105362531998</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>88</v>
       </c>
@@ -1324,17 +1354,17 @@
         <v>13695.003263718607</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>91</v>
       </c>
@@ -1355,41 +1385,41 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.8984375" customWidth="1"/>
+    <col min="13" max="13" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="108.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:13" ht="108.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="49"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="50"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" s="20"/>
       <c r="C5" s="41" t="s">
         <v>34</v>
@@ -1407,7 +1437,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="20">
         <v>0</v>
       </c>
@@ -1427,13 +1457,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7">
         <f>500000</f>
         <v>500000</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>94</v>
       </c>
@@ -1442,7 +1472,7 @@
         <v>3.3333333333333335E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1450,7 +1480,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -1459,12 +1489,12 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="42" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>95</v>
       </c>
@@ -1473,12 +1503,12 @@
         <v>14761.992503421841</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>98</v>
       </c>
@@ -1487,7 +1517,7 @@
         <v>1666.6666666666667</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>99</v>
       </c>
@@ -1496,17 +1526,17 @@
         <v>13095.325836755175</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -1514,7 +1544,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>102</v>
       </c>
@@ -1523,7 +1553,7 @@
         <v>14761.992503421841</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -1532,7 +1562,7 @@
         <v>3.3333333333333335E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -1553,30 +1583,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C5CBD6-6F98-44DA-A1AD-A756362D8644}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.69921875" customWidth="1"/>
+    <col min="8" max="8" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="163.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:8" ht="163.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="49"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="50"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
       <c r="D2" s="41" t="s">
@@ -1589,7 +1619,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="20">
         <v>0</v>
       </c>
@@ -1606,17 +1636,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>100000</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -1625,26 +1655,26 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>106</v>
       </c>
-      <c r="B11" s="64">
+      <c r="B11" s="44">
         <f>(1+4%/12)^12-1</f>
         <v>4.0741542919790819E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>107</v>
       </c>
@@ -1653,7 +1683,7 @@
         <v>104074.15429197908</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1661,7 +1691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>102</v>
       </c>
@@ -1670,12 +1700,12 @@
         <v>37555.763319518657</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>108</v>
       </c>
@@ -1684,7 +1714,7 @@
         <v>8314.2959159066959</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>109</v>
       </c>
@@ -1706,37 +1736,37 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.8984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.69921875" customWidth="1"/>
-    <col min="12" max="12" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.75" customWidth="1"/>
+    <col min="12" max="12" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="77.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:12" ht="77.650000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="46"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="47"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1745,7 +1775,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -1758,7 +1788,7 @@
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>0</v>
       </c>
@@ -1793,12 +1823,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1807,7 +1837,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1815,7 +1845,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1823,7 +1853,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>21</v>
       </c>
@@ -1832,12 +1862,12 @@
         <v>74409.391489672518</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>23</v>
       </c>
@@ -1859,38 +1889,38 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="141" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:14" ht="141" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="49"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="50"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" s="13"/>
       <c r="C6" s="13">
         <v>5000</v>
@@ -1911,7 +1941,7 @@
       <c r="M6" s="13"/>
       <c r="N6" s="13"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" s="20">
         <v>0</v>
       </c>
@@ -1928,7 +1958,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="20" t="s">
         <v>24</v>
       </c>
@@ -1936,17 +1966,17 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1954,7 +1984,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -1962,7 +1992,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1970,7 +2000,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>29</v>
       </c>
@@ -1979,12 +2009,12 @@
         <v>1295282.5935499931</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1992,7 +2022,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -2000,7 +2030,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -2008,7 +2038,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>29</v>
       </c>
@@ -2030,42 +2060,42 @@
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.19921875" customWidth="1"/>
+    <col min="1" max="1" width="18.25" customWidth="1"/>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.19921875" customWidth="1"/>
+    <col min="5" max="5" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="135.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:16" ht="135.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="51"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="52"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B6" s="13"/>
       <c r="C6" s="22" t="s">
         <v>34</v>
@@ -2095,7 +2125,7 @@
       </c>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
       <c r="G7" s="20"/>
@@ -2103,7 +2133,7 @@
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>32</v>
       </c>
@@ -2132,22 +2162,22 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -2155,7 +2185,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -2163,7 +2193,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -2171,7 +2201,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>38</v>
       </c>
@@ -2180,17 +2210,17 @@
         <v>1294767.2300430934</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -2199,7 +2229,7 @@
         <v>1294767.2300430934</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -2207,7 +2237,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -2215,7 +2245,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>37</v>
       </c>
@@ -2236,46 +2266,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3872AD0-7937-4BB2-91D2-1E74240F6FCE}">
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView showGridLines="0" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="23.75" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.69921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.59765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="19" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.69921875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.69921875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.8984375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.69921875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="3.69921875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.09765625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="5.59765625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="23.69921875" style="1"/>
+    <col min="4" max="4" width="19.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="3.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="5.625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="23.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="54"/>
-    </row>
-    <row r="2" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="59" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="55"/>
+    </row>
+    <row r="2" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2283,12 +2313,12 @@
       <c r="I2" s="2"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="59" t="s">
+    <row r="3" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -2297,7 +2327,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>43</v>
       </c>
@@ -2311,7 +2341,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="1:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>44</v>
       </c>
@@ -2325,13 +2355,13 @@
       <c r="I5" s="5"/>
       <c r="J5" s="6"/>
     </row>
-    <row r="6" spans="1:10" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="56" t="s">
+    <row r="6" spans="1:10" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -2339,26 +2369,26 @@
       <c r="I6" s="7"/>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:10" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="58"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="55" t="s">
+    <row r="7" spans="1:10" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="59"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="27"/>
       <c r="C12" s="27">
         <f>12000</f>
@@ -2381,7 +2411,7 @@
       <c r="I12" s="26"/>
       <c r="J12" s="26"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="28">
         <v>0</v>
       </c>
@@ -2401,12 +2431,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
@@ -2415,7 +2445,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -2423,7 +2453,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -2431,7 +2461,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="31" t="s">
         <v>47</v>
       </c>
@@ -2440,12 +2470,12 @@
         <v>165177.97381787316</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>49</v>
       </c>
@@ -2462,7 +2492,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1</v>
       </c>
@@ -2487,7 +2517,7 @@
         <v>163088.65224694557</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f t="shared" ref="A25:A30" si="0">A24+1</f>
         <v>2</v>
@@ -2513,7 +2543,7 @@
         <v>160873.9713817623</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2539,7 +2569,7 @@
         <v>158526.40966466803</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2565,7 +2595,7 @@
         <v>156037.99424454811</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2591,7 +2621,7 @@
         <v>153400.27389922101</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2617,7 +2647,7 @@
         <v>150604.29033317426</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2643,7 +2673,7 @@
         <v>147640.54775316472</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <f>A30+1</f>
         <v>8</v>
@@ -2669,7 +2699,7 @@
         <v>144498.9806183546</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <f t="shared" ref="A32:A53" si="6">A31+1</f>
         <v>9</v>
@@ -2695,7 +2725,7 @@
         <v>141168.91945545588</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <f t="shared" si="6"/>
         <v>10</v>
@@ -2721,7 +2751,7 @@
         <v>137639.05462278324</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <f t="shared" si="6"/>
         <v>11</v>
@@ -2747,7 +2777,7 @@
         <v>133897.39790015024</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <f t="shared" si="6"/>
         <v>12</v>
@@ -2773,7 +2803,7 @@
         <v>129931.24177415927</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <f t="shared" si="6"/>
         <v>13</v>
@@ -2799,7 +2829,7 @@
         <v>125727.11628060883</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <f t="shared" si="6"/>
         <v>14</v>
@@ -2825,7 +2855,7 @@
         <v>121270.74325744536</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <f t="shared" si="6"/>
         <v>15</v>
@@ -2851,7 +2881,7 @@
         <v>116546.98785289208</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <f t="shared" si="6"/>
         <v>16</v>
@@ -2877,7 +2907,7 @@
         <v>111539.80712406561</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <f t="shared" si="6"/>
         <v>17</v>
@@ -2903,7 +2933,7 @@
         <v>106232.19555150955</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <f t="shared" si="6"/>
         <v>18</v>
@@ -2929,7 +2959,7 @@
         <v>100606.12728460012</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <f t="shared" si="6"/>
         <v>19</v>
@@ -2955,7 +2985,7 @@
         <v>94642.494921676131</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <f t="shared" si="6"/>
         <v>20</v>
@@ -2981,7 +3011,7 @@
         <v>88321.044616976695</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <f t="shared" si="6"/>
         <v>21</v>
@@ -3007,7 +3037,7 @@
         <v>81620.307293995298</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <f t="shared" si="6"/>
         <v>22</v>
@@ -3033,7 +3063,7 @@
         <v>74517.525731635018</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <f t="shared" si="6"/>
         <v>23</v>
@@ -3059,7 +3089,7 @@
         <v>66988.577275533113</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <f t="shared" si="6"/>
         <v>24</v>
@@ -3085,7 +3115,7 @@
         <v>59007.891912065097</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <f t="shared" si="6"/>
         <v>25</v>
@@ -3111,7 +3141,7 @@
         <v>50548.365426789002</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <f t="shared" si="6"/>
         <v>26</v>
@@ -3137,7 +3167,7 @@
         <v>41581.267352396346</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <f t="shared" si="6"/>
         <v>27</v>
@@ -3163,7 +3193,7 @@
         <v>32076.143393540126</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <f t="shared" si="6"/>
         <v>28</v>
@@ -3189,7 +3219,7 @@
         <v>22000.711997152532</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <f t="shared" si="6"/>
         <v>29</v>
@@ -3215,7 +3245,7 @@
         <v>11320.754716981683</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <f t="shared" si="6"/>
         <v>30</v>
@@ -3241,12 +3271,12 @@
         <v>5.8389559853821993E-10</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>54</v>
       </c>
@@ -3255,7 +3285,7 @@
         <v>129931.24177415927</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>55</v>
       </c>
@@ -3279,39 +3309,39 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93789AE9-9805-4671-8EA3-75F10DD98CD4}">
-  <dimension ref="A1:S18"/>
+  <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" ht="79.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:19" ht="79.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="63"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="64"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B5" s="13"/>
       <c r="C5" s="33">
         <v>2</v>
@@ -3381,7 +3411,7 @@
         <v>4.3657491767638748</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>0</v>
       </c>
@@ -3437,7 +3467,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>57</v>
       </c>
@@ -3446,7 +3476,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -3454,7 +3484,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>58</v>
       </c>
@@ -3462,7 +3492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -3470,12 +3500,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -3487,18 +3517,24 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>63</v>
       </c>
       <c r="K18" s="34">
         <f>C12/(C13-C10)*(1-(1+C10)^C11/(1+C13)^C11)</f>
         <v>21.861455792064408</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C20" t="e" cm="1">
+        <f t="array" ref="C20">NPV</f>
+        <v>#NAME?</v>
       </c>
     </row>
   </sheetData>
@@ -3515,38 +3551,38 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.8984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.8984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="13" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="141.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:13" ht="141.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="46"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="47"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="33">
         <f>10000</f>
         <v>10000</v>
@@ -3600,7 +3636,7 @@
         <v>17958.563260221297</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -3653,7 +3689,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>56</v>
       </c>
@@ -3661,7 +3697,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -3669,7 +3705,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>64</v>
       </c>
@@ -3679,7 +3715,7 @@
         <v>130000</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>65</v>
       </c>
@@ -3697,44 +3733,44 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:O1"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="15" max="15" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:15" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="46"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="47"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>68</v>
       </c>
@@ -3742,7 +3778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -3750,7 +3786,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>69</v>
       </c>
@@ -3758,7 +3794,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>71</v>
       </c>
@@ -3780,32 +3816,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2F30415-7B58-4EDB-BE2F-D89028CB71D0}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="74.25" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="74.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.8984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.69921875" customWidth="1"/>
+    <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:11" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="46"/>
-    </row>
-    <row r="3" spans="1:11" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="47"/>
+    </row>
+    <row r="3" spans="1:11" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>73</v>
       </c>
@@ -3813,15 +3850,19 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>74</v>
       </c>
       <c r="B4">
         <v>365</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I4" s="17">
+        <f>PMT(7.25%,3,120000000)</f>
+        <v>-45935208.216569267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -3830,7 +3871,7 @@
         <v>1127.4746156383942</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>72</v>
       </c>
